--- a/Nasdaq_raw.xlsx
+++ b/Nasdaq_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\Desktop\Scrapers\TMXMoney-Datascraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCDBEA3-D17D-4345-8EFA-32376534F9AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B7DB64-8342-443B-96CE-365DD6DAEEF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D60F2D35-50C8-4851-A8C6-9E099D265F2A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28020" windowHeight="16440" xr2:uid="{D60F2D35-50C8-4851-A8C6-9E099D265F2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21302,7 +21302,7 @@
     <t>EPS</t>
   </si>
   <si>
-    <t>Company Name</t>
+    <t>Company</t>
   </si>
 </sst>
 </file>
@@ -21657,7 +21657,7 @@
   <dimension ref="A1:J3543"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
